--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -53,12 +53,6 @@
     <t>frog_mario</t>
   </si>
   <si>
-    <t>Hey you! You're walking in the wrong part of town.</t>
-  </si>
-  <si>
-    <t>Ribbit Ribbit! (Yeah frog-face! Wrong part of town!)</t>
-  </si>
-  <si>
     <t>Let's get em!</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>1, 1</t>
+  </si>
+  <si>
+    <t>Ribbit &lt;i&gt;Ribbit!&lt;/i&gt; (Yeah &lt;color=green&gt;frog-face!&lt;/color&gt; Wrong part of town!)</t>
+  </si>
+  <si>
+    <t>&lt;size=48&gt;Hey you!&lt;/size&gt; You're walking in the &lt;color=red&gt;wrong&lt;/color&gt; part of town.</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -464,19 +464,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -487,19 +487,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -77,10 +77,10 @@
     <t>1, 1</t>
   </si>
   <si>
-    <t>Ribbit &lt;i&gt;Ribbit!&lt;/i&gt; (Yeah &lt;color=green&gt;frog-face!&lt;/color&gt; Wrong part of town!)</t>
-  </si>
-  <si>
     <t>&lt;size=48&gt;Hey you!&lt;/size&gt; You're walking in the &lt;color=red&gt;wrong&lt;/color&gt; part of town.</t>
+  </si>
+  <si>
+    <t>Ribbit &lt;i&gt;Ribbit!&lt;/i&gt; &lt;size=24&gt;(Yeah &lt;color=green&gt;frog-face!&lt;/color&gt; Wrong part of town!)&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JTI-PC\unity_projects\typocrypha\Typocrypha\Assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\GitHub\typocrypha\Typocrypha\Assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -439,6 +439,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\GitHub\typocrypha\Typocrypha\Assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JTI-PC\unity_projects\typocrypha\Typocrypha\Assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>START_SCENE</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>DIALOGUE</t>
-  </si>
-  <si>
-    <t>END_GAME</t>
   </si>
   <si>
     <t>Tanuki</t>
@@ -432,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,19 +445,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -480,10 +495,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -491,61 +506,33 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -50,9 +50,6 @@
     <t>frog_mario</t>
   </si>
   <si>
-    <t>Let's get em!</t>
-  </si>
-  <si>
     <t>jazzy_retro_battle_theme</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Ribbit &lt;i&gt;Ribbit!&lt;/i&gt; &lt;size=24&gt;(Yeah &lt;color=green&gt;frog-face!&lt;/color&gt; Wrong part of town!)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Let's [screen-shake=0.2,0.3]get em!</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -463,19 +463,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -486,19 +486,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -509,25 +509,25 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>START_SCENE</t>
   </si>
@@ -71,13 +71,28 @@
     <t>1, 1</t>
   </si>
   <si>
-    <t>&lt;size=48&gt;Hey you!&lt;/size&gt; You're walking in the &lt;color=red&gt;wrong&lt;/color&gt; part of town.</t>
-  </si>
-  <si>
-    <t>Ribbit &lt;i&gt;Ribbit!&lt;/i&gt; &lt;size=24&gt;(Yeah &lt;color=green&gt;frog-face!&lt;/color&gt; Wrong part of town!)&lt;/size&gt;</t>
-  </si>
-  <si>
     <t>Let's [screen-shake=0.2,0.3]get em!</t>
+  </si>
+  <si>
+    <t>[block=t]&lt;size=48&gt;Hey you!&lt;/size&gt;[block=f] You're walking in the &lt;color=red&gt;wrong&lt;/color&gt; part of town.</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>[block=t]Rib[pause=1]bit[pause=1][block=f] &lt;i&gt;Ribbit!&lt;/i&gt; &lt;size=24&gt;(Yeah &lt;color=green&gt;frog-face!&lt;/color&gt; Wrong part of town!)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>[block=t][fade=out,2]Wait, why is the screen fading away?[pause=6][next]</t>
+  </si>
+  <si>
+    <t>[fade=in,0][screen-shake=0.2,0.5]BOO![block=f]</t>
   </si>
 </sst>
 </file>
@@ -429,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -486,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -509,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -532,6 +547,52 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -89,10 +89,10 @@
     <t>[block=t]Rib[pause=1]bit[pause=1][block=f] &lt;i&gt;Ribbit!&lt;/i&gt; &lt;size=24&gt;(Yeah &lt;color=green&gt;frog-face!&lt;/color&gt; Wrong part of town!)&lt;/size&gt;</t>
   </si>
   <si>
-    <t>[block=t][fade=out,2]Wait, why is the screen fading away?[pause=6][next]</t>
-  </si>
-  <si>
-    <t>[fade=in,0][screen-shake=0.2,0.5]BOO![block=f]</t>
+    <t>[fade=in,0,0,0,0][screen-shake=0.2,0.5]BOO![block=f]</t>
+  </si>
+  <si>
+    <t>[block=t][fade=out,2,0,0,0]Wait, why is the screen fading away?[pause=2][center-text-fade=in,0][center-text-scroll=0.05,0,0,0,SPOOPY][pause=2][center-text-fade=out,2][pause=3][next]</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -92,7 +92,7 @@
     <t>[fade=in,0,0,0,0][screen-shake=0.2,0.5]BOO![block=f]</t>
   </si>
   <si>
-    <t>[block=t][fade=out,2,0,0,0]Wait, why is the screen fading away?[pause=2][center-text-fade=in,0][center-text-scroll=0.05,0,0,0,SPOOPY][pause=2][center-text-fade=out,2][pause=3][next]</t>
+    <t>[block=t][fade=out,2,0,0,0][play-sfx=OTHER,Static_Sound]Wait, why is the screen fading away?[pause=2][center-text-fade=in,0][center-text-scroll=0.05,0,0,0,SPOOPY][pause=2][center-text-fade=out,2][pause=3][next]</t>
   </si>
 </sst>
 </file>

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>START_SCENE</t>
   </si>
@@ -71,28 +71,16 @@
     <t>1, 1</t>
   </si>
   <si>
-    <t>Let's [screen-shake=0.2,0.3]get em!</t>
-  </si>
-  <si>
-    <t>[block=t]&lt;size=48&gt;Hey you!&lt;/size&gt;[block=f] You're walking in the &lt;color=red&gt;wrong&lt;/color&gt; part of town.</t>
-  </si>
-  <si>
-    <t>CENTER</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>[block=t]Rib[pause=1]bit[pause=1][block=f] &lt;i&gt;Ribbit!&lt;/i&gt; &lt;size=24&gt;(Yeah &lt;color=green&gt;frog-face!&lt;/color&gt; Wrong part of town!)&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>[fade=in,0,0,0,0][screen-shake=0.2,0.5]BOO![block=f]</t>
-  </si>
-  <si>
-    <t>[block=t][fade=out,2,0,0,0][play-sfx=OTHER,Static_Sound]Wait, why is the screen fading away?[pause=2][center-text-fade=in,0][center-text-scroll=0.05,0,0,0,SPOOPY][pause=2][center-text-fade=out,2][pause=3][next]</t>
+    <t>Hmmmmm</t>
+  </si>
+  <si>
+    <t>[set-talk-sfx=take_damage]Hmm</t>
+  </si>
+  <si>
+    <t>END_GAME</t>
+  </si>
+  <si>
+    <t>Im going to disappear[hide-text-box=t][set-talk-sfx=_] And then will you see me now?[hide-text-box=f]</t>
   </si>
 </sst>
 </file>
@@ -447,7 +435,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,37 +448,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+      <c r="A1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -498,19 +468,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -521,27 +491,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -550,50 +514,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>START_SCENE</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Tanuki</t>
   </si>
   <si>
-    <t>Frog</t>
-  </si>
-  <si>
     <t>tanuki_mario</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>jazzy_retro_battle_theme</t>
   </si>
   <si>
-    <t>frogs</t>
-  </si>
-  <si>
-    <t>LEFT</t>
-  </si>
-  <si>
     <t>RIGHT</t>
   </si>
   <si>
@@ -71,16 +62,19 @@
     <t>1, 1</t>
   </si>
   <si>
-    <t>Hmmmmm</t>
-  </si>
-  <si>
-    <t>[set-talk-sfx=take_damage]Hmm</t>
-  </si>
-  <si>
     <t>END_GAME</t>
   </si>
   <si>
-    <t>Im going to disappear[hide-text-box=t][set-talk-sfx=_] And then will you see me now?[hide-text-box=f]</t>
+    <t>enter your name.</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>[prompt=name].</t>
+  </si>
+  <si>
+    <t>good name.</t>
   </si>
 </sst>
 </file>
@@ -435,7 +429,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -471,42 +465,33 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -517,25 +502,25 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -545,7 +530,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Typocrypha/Assets/excel/cutscene_tests.xlsx
+++ b/Typocrypha/Assets/excel/cutscene_tests.xlsx
@@ -74,7 +74,7 @@
     <t>[prompt=name].</t>
   </si>
   <si>
-    <t>good name.</t>
+    <t>{name}? good name.</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
